--- a/biology/Médecine/Frank_H._Netter/Frank_H._Netter.xlsx
+++ b/biology/Médecine/Frank_H._Netter/Frank_H._Netter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank H. Netter, né le 25 avril 1906 à Manhattan et mort le 17 septembre 1991, est un anatomiste-artiste américain de renommée mondiale, auteur entre autres du célèbre Atlas d'anatomie humaine, majoritairement utilisé par des étudiants en médecine pour ses qualités pédagogiques et iconographiques.
 </t>
@@ -513,15 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et adolescence
-Frank Henry Netter est né à New-York en 1906, fils de Charles Netter (1865-1919) et Esther Adel Slutsky (1873-1924). Ses deux noms, Frank et Henry, ont été donnés pour commémorer les héros historiques américains Benjamin Franklin et Patrick Henry.
+          <t>Enfance et adolescence</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank Henry Netter est né à New-York en 1906, fils de Charles Netter (1865-1919) et Esther Adel Slutsky (1873-1924). Ses deux noms, Frank et Henry, ont été donnés pour commémorer les héros historiques américains Benjamin Franklin et Patrick Henry.
 Il était le troisième de trois enfants, après George Netter (1900-1978) et Rose Netter (1902-1976). Dès son enfance Il se révèle être un observateur attentif montrant un talent artistique remarquable et une grande imagination. Après des études artistiques à la Art Students League of New York il étudia la médecine à la New York University School of Medicine où il fut diplômé en 1931.
 Passionné depuis l'enfance par la conception et la peinture, Frank Henry Netter a décidé que sa carrière avenir et son travail seront basés sur une étude significative des personnes, des mouvements et de l'humeur, ainsi que leur représentation. Il a pu se reconnecter à chaque instant de son enfance dans un quartier très précis et était toujours prêt à dessiner tous ceux qui passeraient devant ses yeux. Comme preuve de ses compétences particulières on note le portrait de sa mère Esther. Dans ce tableau, en utilisant uniquement des parties linéaires et la technique de clair-obscur, Frank Netter âgé de 11 ans pouvait représenter avec authenticité son environnement familial.
 Les années suivantes ont été nettement moins bonnes pour Netter, car entre 1918 et 1920, la ville de New York a été frappée par une épidémie au cours de laquelle il a perdu son père Charles à cause d'un cancer du pancréas et son oncle Abraham, à cause d'une infection du poumon aiguë. Dans la même période, son frère George Maggiore tombe aussi malade cependant il réussit à se remettre complètement de sa maladie.
 En 1919, il a été admis au DeWitt Clinton High School, où il a suivi des cours et des conférences principalement liés à l'art. Grâce à son professeur, l’impressionniste américain Bernard I. Vert, Netter a appris ses techniques qui seraient fondamentales plus tard. Dans les mêmes années, il était connu pour ses compétences artistiques au point de devenir le principal illustrateur de son journal de l'école, Magpie.
 Il a ensuite étudié la conception à la Ligue à la National Academy of Design Art Student.
-Collèges et premières illustrations
-À la fin de sa carrière scolaire et après quelques doutes sur son avenir et les discussions familiales, Netter a décidé de signer en 1927 à Université de New York Medical College motivé par les paroles de sa sœur (qui a obtenu son diplôme en médecine en 1927): "Soyez un médecin! "
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Frank_H._Netter</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Netter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Collèges et premières illustrations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin de sa carrière scolaire et après quelques doutes sur son avenir et les discussions familiales, Netter a décidé de signer en 1927 à Université de New York Medical College motivé par les paroles de sa sœur (qui a obtenu son diplôme en médecine en 1927): "Soyez un médecin! "
 Il faut ajouter que Netter compris que l'art lui-même comme seule occupation ne lui permettait pas de vivre confortablement et avait pour cette raison a décidé de se consacrer aux études de médecine.
         « L'ho vissuta, amata, sono stato entusiasta di tutto ciò, ma ora è giunta al termine. »
         « Je l'ai vécu, aimé, je suis excité à ce sujet, mais il vient maintenant à sa fin. »
@@ -546,8 +598,43 @@
         « J'aime dessiner les mains, car elles sont très expressives. »
 Une semaine plus tard, il était de retour sur la route. Le 11 mai 1989, Netter a été invité d'honneur par le Dr Carl Brighton et Frederick Kaplan pour tenir un tout « Discours à l'Université de Pennsylvanie à l'occasion de la célébration du centenaire du département orthopédie, la nation de la plus ancienne. Pour l'occasion, la société Ciba-Geigy a fait une exposition avec soixante dessins originaux par Netter dans l'auditorium de l'université.
 À l'été 1990, les œuvres de Frank Henry Netter ont été récompensés et ont salué la Conférence internationale des Communicateurs médecins et au cours de la même année, il a participé à la réunion l'Association américaine des anatomistes cliniques Saskatchewan (Canada) au cours de laquelle il a été nommé membre honoraire de l'Association des Art Dalley.
-Illustrations récentes et la mort
-En l'hiver 1989 lors de la chirurgie pour l'élimination des vésicule biliaire les médecins ont diagnostiqué une Netter anévrisme de l'aorte abdominale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frank_H._Netter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_H._Netter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrations récentes et la mort</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En l'hiver 1989 lors de la chirurgie pour l'élimination des vésicule biliaire les médecins ont diagnostiqué une Netter anévrisme de l'aorte abdominale.
 Netter a été hospitalisé dans 1990 un Texas Medical Center en raison de 'anévrisme où il devait nécessairement être exploité. L'opération est apparue plus complexe que prévu parce que l'anévrisme était beaucoup plus grave que ce qu'ils avaient déjà reçu un diagnostic. Au cours de l'opération, il y avait plusieurs complications et Netter a été hospitalisé dans le département soins intensifs une fois l'opération terminée. Il a passé environ six semaines soins intensifs avant d'être déplacé dans une chambre privée. Netter lucide et capable de respirer indépendamment, mais encore très faible, il se trouva à alités sans la possibilité de se déplacer jambes.
 En mai 1991, il a été transféré du Texas Medical Center à Hôpital Mount Sinai de New-York.
 Le temps à New York était nettement mieux que la dernière que sa fille aînée, Cornelia, lui a valu un dessin et album pastels pour lui permettre de tirer. De nombreux collègues ont passé toute la journée avec lui de ne pas lui faire sentir seul et Netter a passé ses derniers mois de vie avec l'agréable compagnie de son neveu James de sept ans.
@@ -559,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Frank_H._Netter</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Frank_H._Netter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1966, Townsend Harris Medal, City College of New York
 1969, The Harold Swanberg Distinguished Service Award, American Medical Writers Association
@@ -605,31 +694,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Frank_H._Netter</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Frank_H._Netter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Atlas d'Anatomie Humaine. Éd. Elsevier-Masson, 2015.  (ISBN 978-2294741241)</t>
         </is>
